--- a/biology/Zoologie/Azteca_(genre)/Azteca_(genre).xlsx
+++ b/biology/Zoologie/Azteca_(genre)/Azteca_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azteca est un genre strictement néotropical de fourmis de la sous-famille des Dolichoderinae.
-Le genre est très diversifié avec près de 90 espèces existantes et deux fossiles. Celles-ci sont essentiellement arboricoles et de plusieurs espèces ont des associations mutualistes avec des espèces végétales particulières, le genre Cecropia présentant l'association la plus courante. En Amazonie brésilienne, les espèces Azteca sont associées aux espèces de Codonanthopsis (plantes de la famille des Gesneriaceae)[1].
+Le genre est très diversifié avec près de 90 espèces existantes et deux fossiles. Celles-ci sont essentiellement arboricoles et de plusieurs espèces ont des associations mutualistes avec des espèces végétales particulières, le genre Cecropia présentant l'association la plus courante. En Amazonie brésilienne, les espèces Azteca sont associées aux espèces de Codonanthopsis (plantes de la famille des Gesneriaceae).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (4 janvier 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (4 janvier 2024) :
 Azteca adrepens Forel, 1911
 Azteca aesopus Forel, 1908
 Azteca alfari Emery, 1893
@@ -631,9 +645,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Azteca Forel, 1878[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Azteca Forel, 1878.
 </t>
         </is>
       </c>
